--- a/TestData/LV_TMTT0011419_VerifyTASSupervisorCanonlyEnterLessThan24HoursForOneDayforAssociatesLightningView.xlsx
+++ b/TestData/LV_TMTT0011419_VerifyTASSupervisorCanonlyEnterLessThan24HoursForOneDayforAssociatesLightningView.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMittal0207\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0052049-B48D-4DF6-BDC6-109F6E44E56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CA46A4-0AEC-4BCE-A389-EF7BB5256653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="8" r:id="rId1"/>
@@ -47,9 +47,6 @@
     <t>Staff Member</t>
   </si>
   <si>
-    <t>Alexander Drews</t>
-  </si>
-  <si>
     <t>Activity Selection</t>
   </si>
   <si>
@@ -123,6 +120,9 @@
   </si>
   <si>
     <t>CAO</t>
+  </si>
+  <si>
+    <t>Michael Goldstein</t>
   </si>
 </sst>
 </file>
@@ -833,36 +833,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -878,19 +878,19 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -906,19 +906,19 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -934,36 +934,36 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -976,23 +976,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1008,19 +1008,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1036,26 +1036,26 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1071,25 +1071,25 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1105,19 +1105,19 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
